--- a/src/main/resources/ManagerPermission.xlsx
+++ b/src/main/resources/ManagerPermission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvenkata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvenkata\intellij-workspace\Employee-Management-System\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96926C9E-BB03-4305-A464-E21C2DA21434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15892F1-D52D-418F-A7BA-C76DDD79C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B793C1C-B26A-4716-8C9C-94173732327F}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{9B793C1C-B26A-4716-8C9C-94173732327F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rvkrishna13052001@gmail.com</t>
-  </si>
-  <si>
-    <t>repallevenkatakrishna@gmail.com</t>
   </si>
   <si>
     <t>manager_email</t>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>add</t>
-  </si>
-  <si>
-    <t>remove</t>
   </si>
 </sst>
 </file>
@@ -120,9 +114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -266,7 +260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,7 +413,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" activeCellId="1" sqref="B3 B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,10 +424,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -441,21 +435,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3B8A4237-552C-422C-BAA6-817EBFBE24D6}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D7DDB262-64C7-47EE-9149-90D8F913978D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
